--- a/nr-rm-jdv/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/nr-rm-jdv/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:29:56+00:00</t>
+    <t>2024-11-14T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -749,11 +749,11 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>PRD-7 (or XCN.1)</t>
@@ -1191,10 +1191,6 @@
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
   </si>
   <si>
@@ -1384,8 +1380,8 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
+    <t>pattern:system}
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -1927,7 +1923,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="105.0546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7994,7 +7990,7 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>378</v>
+        <v>147</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
@@ -8022,10 +8018,10 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>339</v>
@@ -8036,13 +8032,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>372</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>78</v>
@@ -8067,7 +8063,7 @@
         <v>260</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>374</v>
@@ -8105,7 +8101,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8138,13 +8134,13 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>339</v>
@@ -8155,13 +8151,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>372</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
@@ -8186,7 +8182,7 @@
         <v>260</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>374</v>
@@ -8224,7 +8220,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8257,13 +8253,13 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>339</v>
@@ -8274,13 +8270,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>372</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8305,7 +8301,7 @@
         <v>260</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>374</v>
@@ -8343,7 +8339,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8376,13 +8372,13 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>339</v>
@@ -8393,13 +8389,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>372</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
@@ -8424,7 +8420,7 @@
         <v>260</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>374</v>
@@ -8462,7 +8458,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8495,13 +8491,13 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>339</v>
@@ -8512,13 +8508,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>372</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
@@ -8543,7 +8539,7 @@
         <v>260</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>374</v>
@@ -8581,7 +8577,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8614,13 +8610,13 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>339</v>
@@ -8631,13 +8627,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>372</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
@@ -8662,7 +8658,7 @@
         <v>260</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>374</v>
@@ -8700,7 +8696,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8733,13 +8729,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>339</v>
@@ -8750,13 +8746,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>372</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -8781,7 +8777,7 @@
         <v>260</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>374</v>
@@ -8819,7 +8815,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8852,13 +8848,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>339</v>
@@ -8869,10 +8865,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8898,10 +8894,10 @@
         <v>260</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8932,7 +8928,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8950,7 +8946,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8968,13 +8964,13 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8982,10 +8978,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9008,13 +9004,13 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9065,7 +9061,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9086,21 +9082,21 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9123,13 +9119,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9180,7 +9176,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9198,10 +9194,10 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9212,10 +9208,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9238,17 +9234,17 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9285,7 +9281,7 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
@@ -9295,7 +9291,7 @@
         <v>117</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9307,19 +9303,19 @@
         <v>208</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9327,13 +9323,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
@@ -9355,17 +9351,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9414,7 +9410,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9426,19 +9422,19 @@
         <v>208</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9446,10 +9442,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9472,16 +9468,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9531,7 +9527,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9552,7 +9548,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9563,10 +9559,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9678,10 +9674,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9795,14 +9791,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9824,10 +9820,10 @@
         <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>114</v>
@@ -9882,7 +9878,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9914,10 +9910,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9943,10 +9939,10 @@
         <v>175</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9976,11 +9972,11 @@
         <v>253</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9997,7 +9993,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10018,7 +10014,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10029,10 +10025,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10058,10 +10054,10 @@
         <v>324</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10112,7 +10108,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10133,7 +10129,7 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10144,10 +10140,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10170,16 +10166,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10229,7 +10225,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10250,7 +10246,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10261,10 +10257,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10287,16 +10283,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10346,7 +10342,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10367,7 +10363,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10378,10 +10374,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10404,13 +10400,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10461,7 +10457,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10482,7 +10478,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10493,10 +10489,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10608,10 +10604,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10725,14 +10721,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10754,10 +10750,10 @@
         <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>114</v>
@@ -10812,7 +10808,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10844,10 +10840,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10873,10 +10869,10 @@
         <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10927,7 +10923,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>90</v>
@@ -10959,10 +10955,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10988,10 +10984,10 @@
         <v>293</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11042,7 +11038,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11063,7 +11059,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11074,10 +11070,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11103,10 +11099,10 @@
         <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11157,7 +11153,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11178,7 +11174,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11189,10 +11185,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11215,17 +11211,17 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11274,7 +11270,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
